--- a/output/missing-values-sex_work_yr.xlsx
+++ b/output/missing-values-sex_work_yr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -20,16 +20,52 @@
     <t xml:space="preserve">sex_work_yr</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0824</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0834</t>
   </si>
   <si>
     <t xml:space="preserve">TSH0857</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1109</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1693</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1802</t>
@@ -402,6 +438,78 @@
       </c>
       <c r="B6"/>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
